--- a/data/income_statement/3digits/total/791_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/791_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>791-Travel agency and tour operator activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>791-Travel agency and tour operator activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11231923.14179</v>
@@ -959,73 +865,83 @@
         <v>17255559.03852</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>17804324.19451</v>
+        <v>17814769.19602</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>21760483.99439</v>
+        <v>21785479.18799</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>27389812.46437</v>
+        <v>27491416.86058</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>29077613.05349</v>
+        <v>30441193.18906</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>26029313.16672</v>
+        <v>26130488.90121</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>41191958.94202</v>
+        <v>41191958.94202001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>60826275.67519</v>
+        <v>60927893.77451999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>78940059.46042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>79264882.11075999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>29115065.662</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5962302.536389999</v>
+        <v>5962302.53639</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7162860.27329</v>
+        <v>7162860.273290001</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>9116376.226840001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9943482.902009999</v>
+        <v>9953660.37012</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>12994125.6238</v>
+        <v>13018847.57783</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>16101352.05787</v>
+        <v>16133892.72087</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18451934.61271</v>
+        <v>19072334.94511</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16679220.47817</v>
+        <v>16769501.94826</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>25214117.59369</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>36521870.66616</v>
+        <v>36574599.37579</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44409205.62425999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44649844.71729</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>20031956.226</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>5014948.97826</v>
@@ -1037,34 +953,39 @@
         <v>7825555.210030001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7536455.535180001</v>
+        <v>7536455.53518</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8437886.09223</v>
+        <v>8438011.39254</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10883717.06568</v>
+        <v>10952017.24984</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>10181740.77975</v>
+        <v>10916682.01966</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8830273.83175</v>
+        <v>8841116.653270001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>15310104.24403</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>23224225.7591</v>
+        <v>23271174.75792</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>33404337.7542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33478040.2198</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8521715.851</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>254671.62714</v>
@@ -1076,34 +997,39 @@
         <v>313627.60165</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>324385.75732</v>
+        <v>324653.29072</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>328472.2783599999</v>
+        <v>328620.21762</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>404743.34082</v>
+        <v>405506.88987</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>443937.66103</v>
+        <v>452176.22429</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>519818.8568</v>
+        <v>519870.29968</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>667737.1043</v>
+        <v>667737.1043000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1080179.24993</v>
+        <v>1082119.64081</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1126516.08196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1136997.17367</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>561393.585</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>105354.55278</v>
@@ -1115,37 +1041,42 @@
         <v>153107.43345</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>166839.38601</v>
+        <v>166839.46486</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>208341.0427</v>
+        <v>208347.12364</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>399210.27943</v>
+        <v>399455.1573</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>338028.69925</v>
+        <v>352317.35751</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>427014.15235</v>
+        <v>429303.32014</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>565239.90113</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>840192.50451</v>
+        <v>841183.39226</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>946521.5507399999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>951188.8165699999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1156483.899</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>86977.06939</v>
+        <v>86977.06938999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>111611.96029</v>
@@ -1154,34 +1085,39 @@
         <v>123522.15657</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>135914.51282</v>
+        <v>135914.59167</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>173482.82158</v>
+        <v>173488.90252</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>368070.65572</v>
+        <v>368315.5335899999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>295535.0559500001</v>
+        <v>301787.1541</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>361781.28812</v>
+        <v>364070.45591</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>514716.89292</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>749405.38865</v>
+        <v>750354.66555</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>877769.9831300001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>882410.3088699999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1111617.111</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>16740.13981</v>
@@ -1202,7 +1138,7 @@
         <v>29885.50237</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>39371.0655</v>
+        <v>47406.29498</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>57274.99425000001</v>
@@ -1211,16 +1147,21 @@
         <v>44673.14858</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>87891.49708000002</v>
+        <v>87933.10793</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>51902.91018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>52144.47004</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>37603.885</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1637.34358</v>
@@ -1235,31 +1176,36 @@
         <v>1436.71903</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>18596.45443</v>
+        <v>18596.45443000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>1254.12134</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3122.5778</v>
+        <v>3123.908429999999</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>7957.86998</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5849.859630000001</v>
+        <v>5849.85963</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>2895.61878</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>16848.65743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16634.03766</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>7262.903</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>11126568.58901</v>
@@ -1271,34 +1217,39 @@
         <v>17102451.60507</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>17637484.8085</v>
+        <v>17647929.73116</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>21552142.95169</v>
+        <v>21577132.06435</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>26990602.18494</v>
+        <v>27091961.70328</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>28739584.35424</v>
+        <v>30088875.83155</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>25602299.01437</v>
+        <v>25701185.58107</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>40626719.04089</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>59986083.17068</v>
+        <v>60086710.38226</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>77993537.90968001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>78313693.29418999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>27958581.763</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>10078274.83168</v>
@@ -1310,34 +1261,39 @@
         <v>15519115.77389</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>15999266.11059</v>
+        <v>16008812.42713</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>19699308.30228</v>
+        <v>19723980.22491</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>24775037.97254</v>
+        <v>24866776.19611</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>26222288.77924</v>
+        <v>27484157.97102</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>23286460.631</v>
+        <v>23374767.10025</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>37419886.43294</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>55578691.96478</v>
+        <v>55677726.06245</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>72691887.98223999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>72927329.25508</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26052444.938</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>115347.32632</v>
@@ -1349,37 +1305,42 @@
         <v>51038.89539</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>88250.49749000001</v>
+        <v>88250.49748999999</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>119474.05091</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>46719.87412</v>
+        <v>47974.27295000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>60238.90994999999</v>
+        <v>60535.78287</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>41523.48990000001</v>
+        <v>41592.56265</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>817863.0066200001</v>
+        <v>817863.00662</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>305634.52241</v>
+        <v>306328.61137</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>343277.18549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>348840.16067</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>124838.118</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>592524.87512</v>
+        <v>592524.8751199999</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>620538.75644</v>
@@ -1388,37 +1349,42 @@
         <v>713423.33143</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>836357.4063299999</v>
+        <v>836489.6770599999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>904037.7749200001</v>
+        <v>904118.0793</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1255822.85408</v>
+        <v>1255539.68728</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1392569.1971</v>
+        <v>1396050.18261</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1626850.61976</v>
+        <v>1627090.30212</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1721165.40179</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4120197.23346</v>
+        <v>4128209.8051</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2770734.15799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2718452.39309</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2128023.332</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9358509.76337</v>
+        <v>9358509.763370002</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>11360199.30578</v>
@@ -1427,34 +1393,39 @@
         <v>14746955.74896</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>15046529.21633</v>
+        <v>15055943.26214</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>18644142.50113</v>
+        <v>18668734.11938</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>23451367.97535</v>
+        <v>23542134.96689</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>24730302.24868</v>
+        <v>25984515.71437</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>21566437.03109</v>
+        <v>21654432.33893</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>34823432.01604</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>51075498.91632</v>
+        <v>51165351.29721</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>69258706.72479001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>69540484.53048</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>23650442.107</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11892.86687</v>
@@ -1475,25 +1446,30 @@
         <v>21127.26899</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>39178.42351</v>
+        <v>43056.29117</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>51649.49025</v>
+        <v>51651.89655</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>57426.00848999999</v>
+        <v>57426.00849</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>77361.29259</v>
+        <v>77836.34877000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>319169.9139700001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>319552.17084</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>149141.381</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1048293.75733</v>
@@ -1505,73 +1481,83 @@
         <v>1583335.83118</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1638218.69791</v>
+        <v>1639117.30403</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1852834.64941</v>
+        <v>1853151.83944</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2215564.2124</v>
+        <v>2225185.50717</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2517295.575</v>
+        <v>2604717.86053</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2315838.38337</v>
+        <v>2326418.48082</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3206832.60795</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4407391.2059</v>
+        <v>4408984.319809999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5301649.927440001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5386364.03911</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1906136.825</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>972527.91356</v>
+        <v>972527.9135599999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>1077803.80431</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1308230.815</v>
+        <v>1308235.463</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1450624.87677</v>
+        <v>1451352.88463</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1597437.12051</v>
+        <v>1599025.30792</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1910094.32254</v>
+        <v>1916707.6883</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2202814.9213</v>
+        <v>2267078.91589</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2310967.25556</v>
+        <v>2321767.3498</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2806400.07441</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3643314.64304</v>
+        <v>3653080.93104</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4464435.33804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4510870.10642</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2861727.563</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1585.69982</v>
@@ -1604,13 +1590,18 @@
         <v>6165.78689</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15323.46238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12354.29322</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>17799.853</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>166903.07723</v>
@@ -1625,109 +1616,124 @@
         <v>315710.83371</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>341538.58689</v>
+        <v>341540.24543</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>452068.354</v>
+        <v>453492.76246</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>522631.18544</v>
+        <v>540405.1062200001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>574830.7445199999</v>
+        <v>575150.8973399999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>783294.3205800001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1025567.32846</v>
+        <v>1027292.88598</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1307712.67114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1316453.18518</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>548755.331</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>804039.13651</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>870573.89063</v>
+        <v>870573.8906299999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1037829.30409</v>
+        <v>1037833.95209</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1127411.62536</v>
+        <v>1128139.63322</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1247944.0294</v>
+        <v>1249530.55827</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1454937.76466</v>
+        <v>1460126.72196</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1678856.86988</v>
+        <v>1725346.94369</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1734386.93558</v>
+        <v>1744866.877</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2020747.70368</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2611581.52769</v>
+        <v>2619622.25817</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3141399.20452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3182062.62802</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2295172.379</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>75765.84376999999</v>
+        <v>75765.84377000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>113141.9056</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>275105.01618</v>
+        <v>275100.36818</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>187593.82114</v>
+        <v>187764.4194</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>255397.5289</v>
+        <v>254126.53152</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>305469.88986</v>
+        <v>308477.81887</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>314480.6536999999</v>
+        <v>337638.94464</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4871.127810000003</v>
+        <v>4651.131019999988</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>400432.53354</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>764076.5628600001</v>
+        <v>755903.38877</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>837214.5893999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>875493.9326899999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-955590.738</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>742864.17082</v>
@@ -1739,34 +1745,39 @@
         <v>1230817.66479</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>864559.52019</v>
+        <v>864564.70623</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1141791.14727</v>
+        <v>1142405.17463</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1507238.56419</v>
+        <v>1515438.85911</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2853410.18542</v>
+        <v>2994093.17065</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2173439.81776</v>
+        <v>2177146.49899</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3659587.23099</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14492666.99206</v>
+        <v>14493100.28667</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>9334686.3575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9338899.78679</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>12192862.043</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>22076.4836</v>
@@ -1775,19 +1786,19 @@
         <v>107369.45663</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>60262.46823000001</v>
+        <v>60262.46823</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>60992.25639999999</v>
+        <v>60992.25640000001</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>16465.08644</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>14667.97183</v>
+        <v>14668.35433</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>13920.82418</v>
+        <v>16275.21999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>15860.82087</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>38588.91334000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>26522.758</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3611.8193</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>1791230.05244</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>476.459</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>56339.72575</v>
@@ -1859,31 +1880,36 @@
         <v>56716.54509</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>64601.58103</v>
+        <v>64621.19973</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>61240.34470999999</v>
+        <v>61262.82933000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>77200.63614</v>
+        <v>80687.91872</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>99134.58209000001</v>
+        <v>99192.37414000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>149700.37366</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>270489.33634</v>
+        <v>270497.5254099999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>327215.58281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>327602.7607100001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>260166.961</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>25075.21156</v>
@@ -1901,10 +1927,10 @@
         <v>28008.78924</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>37787.44897</v>
+        <v>38101.48088</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>46965.98152</v>
+        <v>47078.63140000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>45391.95569</v>
@@ -1913,16 +1939,21 @@
         <v>46356.39504</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>74642.35043000001</v>
+        <v>74650.35420999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>110380.26772</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>110922.35585</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>40092.981</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>6622.026309999999</v>
@@ -1934,19 +1965,19 @@
         <v>2514.43271</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4331.930050000001</v>
+        <v>4331.93005</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>3915.873</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2225.01918</v>
+        <v>2301.97539</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2175.5721</v>
+        <v>2175.58781</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4620.19192</v>
+        <v>4807.97172</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>18470.47886</v>
@@ -1955,13 +1986,18 @@
         <v>3966.86267</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>39432.80853</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>39436.22102</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9420.58</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>6908.16999</v>
@@ -1976,16 +2012,16 @@
         <v>3268.51729</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3912.499269999999</v>
+        <v>3912.49927</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>47208.66199</v>
+        <v>47267.19121</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>33113.63099000001</v>
+        <v>33146.54606</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3981.1052</v>
+        <v>3994.80826</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>20446.74083</v>
@@ -1994,52 +2030,62 @@
         <v>29724.69644</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>24642.08384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>24709.84235</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>17821.485</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>509207.90724</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>673728.8162600001</v>
+        <v>673728.81626</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>983645.20336</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>513695.84127</v>
+        <v>513701.02731</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>946507.09095</v>
+        <v>947123.38007</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1221887.62359</v>
+        <v>1229547.2417</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2541585.71563</v>
+        <v>2670535.84021</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1856895.34932</v>
+        <v>1859673.46661</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3076562.17987</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>13636480.79124</v>
+        <v>13636858.91682</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6582292.74549</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6583970.53826</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11494745.737</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>570.8258099999999</v>
@@ -2048,7 +2094,7 @@
         <v>344.4745799999999</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>39.08603000000001</v>
+        <v>39.08603</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>845.5625600000001</v>
@@ -2057,10 +2103,10 @@
         <v>1.47033</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>55.99138000000001</v>
+        <v>55.99138</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1653.55465</v>
+        <v>1655.22564</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>162.00633</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1157.45383</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>59.93872</v>
@@ -2108,94 +2159,109 @@
         <v>42.64487</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>257.7334</v>
+        <v>302.80957</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>91.12260000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>111.90127</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>242.519</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>112392.06254</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>323906.67304</v>
+        <v>323906.6730400001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>90421.7334</v>
+        <v>90421.73340000001</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>191084.12175</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>74277.11734</v>
+        <v>74255.23688</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>113897.54631</v>
+        <v>113965.83866</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>125637.6808</v>
+        <v>131381.61141</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>120505.72166</v>
+        <v>121175.01069</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>335238.05047</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>415651.157</v>
+        <v>415645.05701</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>419655.3269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>421169.74772</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>343362.303</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>566072.2334000001</v>
+        <v>566072.2334</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>671356.06996</v>
+        <v>671356.0699599999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>1430277.88048</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>517983.66489</v>
+        <v>517985.80649</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1049529.50019</v>
+        <v>1050309.93518</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1379425.19541</v>
+        <v>1389062.84655</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2589752.21915</v>
+        <v>2731904.41392</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2060068.21588</v>
+        <v>2064372.35696</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3388997.3627</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>14526201.96231</v>
+        <v>14526600.34052</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7496112.34822</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7498714.257599999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12241173.172</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>19651.75796</v>
@@ -2210,13 +2276,13 @@
         <v>18758.42463</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>20243.05918</v>
+        <v>20243.40658</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>24162.52099</v>
+        <v>24165.02202</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>45669.38213</v>
+        <v>45932.51219000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>32957.07632</v>
@@ -2225,22 +2291,27 @@
         <v>29677.1804</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>97320.12078</v>
+        <v>97327.17327000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>61610.57962</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>61878.21610000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>18325.992</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>13342.5121</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9640.859779999999</v>
+        <v>9640.859780000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>30188.61454</v>
@@ -2252,10 +2323,10 @@
         <v>17000.85454</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>105911.02283</v>
+        <v>106884.60684</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>40627.43265</v>
+        <v>41009.53145</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>22744.73489</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>242242.87883</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>100044.401</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3515.0155</v>
@@ -2291,10 +2367,10 @@
         <v>6946.60734</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>27904.20284000001</v>
+        <v>27904.20284</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1415.05745</v>
+        <v>1422.70871</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>934.7763200000001</v>
@@ -2303,55 +2379,65 @@
         <v>19009.25648</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>907.5826000000001</v>
+        <v>907.5826</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2110.56027</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2255.66034</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>54592.41</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>491193.63479</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>628149.9280800001</v>
+        <v>628149.9280799999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>1162772.361</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>473846.9744900001</v>
+        <v>473849.11598</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>988738.6742</v>
+        <v>989389.2561699999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1201988.86193</v>
+        <v>1210563.7502</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2483328.45839</v>
+        <v>2624822.79539</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1950723.04192</v>
+        <v>1955034.42686</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3117166.40585</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14160321.85142</v>
+        <v>14160676.78601</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6779795.46691</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6781811.306280001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11848691.939</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>239.24599</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>69.4308</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>70.631</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>29.10237</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>80.31877</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>38100.96469</v>
@@ -2441,34 +2537,39 @@
         <v>208678.66731</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>16431.29174</v>
+        <v>16431.29185</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>16535.76167</v>
+        <v>16665.26729</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>19316.33144</v>
+        <v>19403.00927</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>18560.85953</v>
+        <v>18565.83718</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>52480.99281</v>
+        <v>52473.74894999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>204228.13966</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>248110.85376</v>
+        <v>248147.24489</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>410203.11302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>410376.44648</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>219447.352</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>149058.42428</v>
@@ -2480,34 +2581,39 @@
         <v>250878.60921</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>187069.34124</v>
+        <v>187329.9925</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>223871.35145</v>
+        <v>223975.55683</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>220013.23898</v>
+        <v>220403.40877</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>283750.08737</v>
+        <v>296667.39854</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>388401.54886</v>
+        <v>388615.4335599999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>551417.4223300001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>754043.07104</v>
+        <v>754754.22687</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>921146.8544200001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>922352.3509</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>757982.786</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>125339.68723</v>
@@ -2519,34 +2625,39 @@
         <v>146873.01536</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>159503.50672</v>
+        <v>159764.15798</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>175753.05117</v>
+        <v>175857.25655</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>186663.20893</v>
+        <v>187053.37872</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>238160.27955</v>
+        <v>251077.59072</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>334859.64921</v>
+        <v>335073.5339099999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>497477.08511</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>723407.3886899999</v>
+        <v>724118.54452</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>868250.96047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>869456.2295199999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>744664.056</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>23718.73705</v>
@@ -2564,10 +2675,10 @@
         <v>48118.30028</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>33350.03005</v>
+        <v>33350.03004999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>45589.80781999999</v>
+        <v>45589.80782</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>53541.89964999999</v>
@@ -2579,91 +2690,106 @@
         <v>30635.68235</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>52895.89395000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>52896.12138</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>13318.73</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>103499.35691</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>466217.1681000001</v>
+        <v>466217.1681</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-175233.80872</v>
+        <v>-175238.45672</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>347100.3351999999</v>
+        <v>347013.32664</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>123787.82453</v>
+        <v>122246.21414</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>213270.01966</v>
+        <v>214450.42266</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>294388.5326</v>
+        <v>303160.30283</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-270158.81917</v>
+        <v>-271190.16051</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>119604.9795</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-23501.47843</v>
+        <v>-32350.89195000002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1754641.74426</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1793327.11098</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1761884.653</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>56624.26273</v>
+        <v>56624.26272999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>87996.28570999998</v>
+        <v>87996.28571000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>311430.1083200001</v>
+        <v>311430.10832</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>92475.42232</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>99302.92621000001</v>
+        <v>99505.0512</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>155135.99246</v>
+        <v>155227.7698</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>174807.21919</v>
+        <v>179994.47207</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>287092.34528</v>
+        <v>287303.83035</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>296989.01963</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>406104.79919</v>
+        <v>406479.75663</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>536510.3239999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>539144.5075800001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>391280.259</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1925.03611</v>
@@ -2684,10 +2810,10 @@
         <v>2228.82244</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5515.63307</v>
+        <v>5676.266</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2581.50222</v>
+        <v>2588.37722</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>3888.36848</v>
@@ -2696,16 +2822,21 @@
         <v>11392.82316</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>10281.70662</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>10262.06087</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4314.644</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>54699.22662</v>
+        <v>54699.22661999999</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>86789.75309999999</v>
@@ -2714,73 +2845,83 @@
         <v>309773.75595</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>90689.01827</v>
+        <v>90689.01827000002</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>96013.8337</v>
+        <v>96215.95869</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>152907.17002</v>
+        <v>152998.94736</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>169291.58612</v>
+        <v>174318.20607</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>284510.84306</v>
+        <v>284715.45313</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>293100.65115</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>394711.97603</v>
+        <v>395086.93347</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>526228.61738</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>528882.4467099999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>386965.615</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>115235.50241</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>97411.97620999999</v>
+        <v>97411.97621000001</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>333998.75865</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>95123.89142</v>
+        <v>95339.27665</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>146679.87543</v>
+        <v>146756.93653</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>247887.4763</v>
+        <v>247665.07499</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>107416.14229</v>
+        <v>109956.52915</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>230411.69118</v>
+        <v>230468.08124</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>437484.26384</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>363878.90871</v>
+        <v>364388.42082</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>351966.4228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>353581.70899</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>306080.159</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>247.97847</v>
@@ -2789,10 +2930,10 @@
         <v>168.96919</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>679.7642600000001</v>
+        <v>679.76426</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>653.2794399999999</v>
+        <v>653.27944</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>4546.34924</v>
@@ -2804,7 +2945,7 @@
         <v>1713.57366</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>7937.385990000001</v>
+        <v>7937.385989999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>3149.36438</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>2331.40368</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>12633.675</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9192.197530000001</v>
+        <v>9192.197529999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>15618.76578</v>
@@ -2831,16 +2977,16 @@
         <v>6782.61861</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>9594.46067</v>
+        <v>9608.277830000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6220.910930000001</v>
+        <v>6221.50513</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>15860.20837</v>
+        <v>15870.44575</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11441.37393</v>
+        <v>12560.85355</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>8415.72336</v>
@@ -2852,13 +2998,18 @@
         <v>21930.05845</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>20547.91975</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>20563.38953</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>30983.541</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>105795.32641</v>
@@ -2870,34 +3021,39 @@
         <v>326536.37578</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>84876.15131</v>
+        <v>85077.71937999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>135912.61526</v>
+        <v>135989.08216</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>231650.2946</v>
+        <v>231417.65591</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>94261.19470000001</v>
+        <v>95682.10193999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>214058.58183</v>
+        <v>214114.97189</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>328499.35495</v>
+        <v>328499.3549500001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>339300.51894</v>
+        <v>339810.0310499999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>329087.0993700001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>330686.91578</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>262462.943</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>44888.11723</v>
@@ -2906,37 +3062,42 @@
         <v>456801.4776</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-197802.45905</v>
+        <v>-197807.10705</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>344451.8661</v>
+        <v>344149.47231</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>76410.87531</v>
+        <v>74994.32880999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>120518.53582</v>
+        <v>122013.11747</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>361779.6095</v>
+        <v>373198.24575</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-213478.16507</v>
+        <v>-214354.4114</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-20890.26471000001</v>
+        <v>-20890.26470999998</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>18724.41205</v>
+        <v>9740.443859999985</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1939185.64546</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1978889.90957</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1676684.553</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>35537.71472</v>
@@ -2945,73 +3106,81 @@
         <v>48593.68931</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>73031.60304</v>
+        <v>73031.60303999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>68364.38198000001</v>
+        <v>68371.77417999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>81503.07277</v>
+        <v>81505.57204000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>98834.09965999999</v>
+        <v>99290.24040000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>118003.94759</v>
+        <v>122396.43508</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>94355.52830000001</v>
+        <v>94399.97702999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>115022.36292</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>207561.3769600001</v>
+        <v>207665.95385</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>240854.75837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>243932.68779</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>129102.163</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>9350.402509999998</v>
+        <v>9350.402510000004</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>408207.78829</v>
+        <v>408207.7882899999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-270834.06209</v>
+        <v>-270838.71009</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>276087.48412</v>
+        <v>275777.69813</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-5092.197459999997</v>
+        <v>-6511.24323</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>21684.43616</v>
+        <v>22722.87707</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>243775.66191</v>
+        <v>250801.81067</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-307833.69337</v>
+        <v>-308754.3884299999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-135912.62763</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-188836.96491</v>
+        <v>-197925.50999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1698330.88709</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1734957.22178</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1805786.716</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>7028</v>
@@ -3038,34 +3210,37 @@
         <v>7118</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7310</v>
+        <v>7311</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7166</v>
+        <v>7174</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6712</v>
+        <v>6730</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7001</v>
+        <v>7035</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7409</v>
+        <v>7502</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7734</v>
+        <v>7763</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>8206</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8788</v>
+        <v>9192</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>9513</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10298</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10674</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>